--- a/Data/aearep-1556/candidatepackages.xlsx
+++ b/Data/aearep-1556/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -25,12 +25,12 @@
     <t>reghdfe</t>
   </si>
   <si>
+    <t>ivreg2</t>
+  </si>
+  <si>
     <t>ftools</t>
   </si>
   <si>
-    <t>ivreg2</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
@@ -79,9 +79,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-1556/OneDrive/AER-2018-0441 CARE paper/Data analysis/Do</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-1556/tools</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>config.do</t>
-  </si>
-  <si>
-    <t>convert_graphs.do</t>
   </si>
 </sst>
 </file>
@@ -181,7 +175,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -193,7 +187,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -205,7 +199,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -217,7 +211,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -229,7 +223,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -241,10 +235,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="C9">
-        <v>0.18733422458171844</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D9"/>
     </row>
@@ -253,10 +247,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C10">
-        <v>0.18766577541828156</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D10"/>
     </row>
@@ -265,10 +259,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C11">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D11"/>
     </row>
@@ -277,10 +271,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>985</v>
+        <v>998</v>
       </c>
       <c r="C12">
-        <v>0.32659152150154114</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D12"/>
     </row>
@@ -289,10 +283,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1312</v>
+        <v>1385</v>
       </c>
       <c r="C13">
-        <v>0.43501326441764832</v>
+        <v>0.45785123109817505</v>
       </c>
       <c r="D13"/>
     </row>
@@ -301,10 +295,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1553</v>
+        <v>1428</v>
       </c>
       <c r="C14">
-        <v>0.51492041349411011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D14"/>
     </row>
@@ -313,10 +307,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1621</v>
+        <v>1678</v>
       </c>
       <c r="C15">
-        <v>0.53746682405471802</v>
+        <v>0.5547107458114624</v>
       </c>
       <c r="D15"/>
     </row>
@@ -326,7 +320,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -334,7 +328,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -342,7 +336,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -350,7 +344,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -358,15 +352,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
